--- a/medicine/Mort/Tombe_des_Reliefs/Tombe_des_Reliefs.xlsx
+++ b/medicine/Mort/Tombe_des_Reliefs/Tombe_des_Reliefs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tombe des Reliefs (en italien, Tomba dei Rilievi) est une tombe étrusque à hypogée de la nécropole de Banditaccia à Cerveteri.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tombe, qui date du IVe siècle av. J.-C., a appartenu à la famille Matunas. Elle est  accessible par un long dromos qui aboutit à un vestibule (une chambre a camera, à voûte à deux pentes et poutre faîtière simulée) de 6,5 × 7,8 m, complétée de deux colonnes à chapiteaux éolique[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tombe, qui date du IVe siècle av. J.-C., a appartenu à la famille Matunas. Elle est  accessible par un long dromos qui aboutit à un vestibule (une chambre a camera, à voûte à deux pentes et poutre faîtière simulée) de 6,5 × 7,8 m, complétée de deux colonnes à chapiteaux éolique. 
 Les emplacements sont nombreux : 13 doubles niches funéraires rouges et une saillie sculptée réservant un espace supplémentaire pour 34 corps.
-Les bas-reliefs en stuc représentent divers objets : armes, objets de culte ou de la vie quotidienne chez les Étrusques : fronde, chariot, ratelier à couteaux, hache, coutelas, broches à rôtir, tenailles, pinces, bourse de cuir, houlettes de berger[2]...
+Les bas-reliefs en stuc représentent divers objets : armes, objets de culte ou de la vie quotidienne chez les Étrusques : fronde, chariot, ratelier à couteaux, hache, coutelas, broches à rôtir, tenailles, pinces, bourse de cuir, houlettes de berger...
 			Vue d'artiste par Samuel James Ainsley, vers 1847-1848.
 			Intérieur de la tombe, éclairage adouci.
 </t>
